--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/Báo cáo BH-SX tháng 08-22.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/Báo cáo BH-SX tháng 08-22.xlsx
@@ -1625,6 +1625,45 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1638,18 +1677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,33 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2069,144 +2069,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="49" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
     </row>
     <row r="5" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3">
@@ -2260,7 +2260,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="3">
         <v>44696</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="3">
         <v>44696</v>
       </c>
@@ -2341,19 +2341,19 @@
         <v>15</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="V7" s="54" t="s">
+      <c r="V7" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="W7" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="X7" s="46"/>
+      <c r="X7" s="59"/>
     </row>
     <row r="8" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="3">
         <v>44696</v>
       </c>
@@ -2398,15 +2398,15 @@
         <v>15</v>
       </c>
       <c r="T8" s="2"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="61"/>
     </row>
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="3">
         <v>44696</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>15</v>
       </c>
       <c r="T9" s="2"/>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="65" t="s">
         <v>10</v>
       </c>
       <c r="W9" s="2" t="s">
@@ -2465,7 +2465,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="3">
         <v>44696</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="3">
         <v>44788</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>30</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="V11" s="57"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="2" t="s">
         <v>142</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="3">
         <v>44788</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="T12" s="2"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="2" t="s">
         <v>340</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="3">
         <v>44788</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>30</v>
       </c>
       <c r="T13" s="2"/>
-      <c r="V13" s="57"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="3">
         <v>44788</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="T14" s="2"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="3">
         <v>44788</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="T15" s="2"/>
-      <c r="V15" s="56" t="s">
+      <c r="V15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="W15" s="2" t="s">
@@ -2815,7 +2815,7 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="3">
         <v>44788</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="T16" s="2"/>
-      <c r="V16" s="57"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="2" t="s">
         <v>99</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="3">
         <v>44788</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>30</v>
       </c>
       <c r="T17" s="2"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="66"/>
       <c r="W17" s="2" t="s">
         <v>150</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="3">
         <v>44788</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>30</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="3">
         <v>44788</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>30</v>
       </c>
       <c r="T19" s="2"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="2" t="s">
         <v>66</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="3">
         <v>44788</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>30</v>
       </c>
       <c r="T20" s="2"/>
-      <c r="V20" s="49" t="s">
+      <c r="V20" s="62" t="s">
         <v>341</v>
       </c>
       <c r="W20" s="33" t="s">
@@ -3122,7 +3122,7 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="3">
         <v>44788</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>30</v>
       </c>
       <c r="T21" s="2"/>
-      <c r="V21" s="49"/>
+      <c r="V21" s="62"/>
       <c r="W21" s="33" t="s">
         <v>172</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="3">
         <v>44788</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>30</v>
       </c>
       <c r="T22" s="2"/>
-      <c r="V22" s="49"/>
+      <c r="V22" s="62"/>
       <c r="W22" s="1" t="s">
         <v>164</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="3">
         <v>44788</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3">
         <v>44788</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="3">
         <v>44788</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="3">
         <v>44788</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="3">
         <v>44788</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="3">
         <v>44788</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="3">
         <v>44788</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="3">
         <v>44788</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="3">
         <v>44788</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="3">
         <v>44788</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="3">
         <v>44788</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="60"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="3">
         <v>44788</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="3">
         <v>44788</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="3">
         <v>44788</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="3">
         <v>44788</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="3">
         <v>44788</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="3">
         <v>44788</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="3">
         <v>44788</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="3">
         <v>44788</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="61"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="3">
         <v>44788</v>
       </c>
@@ -4260,7 +4260,7 @@
       <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="3">
@@ -4308,7 +4308,7 @@
       <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="60"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="3">
         <v>44788</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="3">
         <v>44788</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="60"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="3">
         <v>44796</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="60"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="3">
         <v>44796</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="3">
         <v>44788</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="60"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="3">
         <v>44788</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="3">
         <v>44788</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="60"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="3">
         <v>44788</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="60"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="3">
         <v>44788</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="3">
         <v>44788</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="60"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="3">
         <v>44788</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="60"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="3">
         <v>44788</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="60"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="3">
         <v>44788</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="3">
         <v>44788</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="60"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="3">
         <v>44788</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="60"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="3">
         <v>44788</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="60"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="3">
         <v>44788</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="60"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="3">
         <v>44788</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="60"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="3">
         <v>44788</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="60"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="3">
         <v>44788</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="60"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="3">
         <v>44788</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="60"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="3">
         <v>44788</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="60"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="3">
         <v>44788</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="60"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="3">
         <v>44788</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="60"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="3">
         <v>44788</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="60"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="3">
         <v>44788</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="60"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="3">
         <v>44788</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="60"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="3">
         <v>44788</v>
       </c>
@@ -5712,7 +5712,7 @@
       <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="60"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="3">
         <v>44788</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="60"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="3">
         <v>44788</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="60"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="3">
         <v>44788</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="60"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="3">
         <v>44788</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="60"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="3">
         <v>44788</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="60"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="3">
         <v>44788</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="60"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="3">
         <v>44788</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="60"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="3">
         <v>44788</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="60"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="3">
         <v>44788</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="60"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="3">
         <v>44788</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="60"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="3">
         <v>44788</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="60"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="3">
         <v>44788</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="60"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="3">
         <v>44788</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="60"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="3">
         <v>44788</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="60"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="3">
         <v>44788</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="60"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="3">
         <v>44788</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="60"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="3">
         <v>44788</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="60"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="3">
         <v>44788</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="60"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="3">
         <v>44788</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="60"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="3">
         <v>44788</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="60"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="3">
         <v>44788</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="60"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="3">
         <v>44788</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="60"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="3">
         <v>44788</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="60"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="3">
         <v>44788</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="60"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="3">
         <v>44788</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="60"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="3">
         <v>44788</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="60"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="3">
         <v>44788</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="60"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="3">
         <v>44788</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="60"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="3">
         <v>44788</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="60"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="3">
         <v>44788</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="60"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="3">
         <v>44788</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="A103" s="4">
         <v>99</v>
       </c>
-      <c r="B103" s="60"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="3">
         <v>44788</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="A104" s="4">
         <v>100</v>
       </c>
-      <c r="B104" s="60"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="3">
         <v>44788</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="A105" s="4">
         <v>101</v>
       </c>
-      <c r="B105" s="60"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="3">
         <v>44788</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="A106" s="4">
         <v>102</v>
       </c>
-      <c r="B106" s="60"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="3">
         <v>44788</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="A107" s="4">
         <v>103</v>
       </c>
-      <c r="B107" s="60"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="3">
         <v>44796</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="A108" s="4">
         <v>104</v>
       </c>
-      <c r="B108" s="60"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="3">
         <v>44796</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="A109" s="4">
         <v>105</v>
       </c>
-      <c r="B109" s="60"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="3">
         <v>44796</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="A110" s="4">
         <v>106</v>
       </c>
-      <c r="B110" s="60"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="3">
         <v>44796</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="A111" s="4">
         <v>107</v>
       </c>
-      <c r="B111" s="60"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="3">
         <v>44796</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="A112" s="4">
         <v>108</v>
       </c>
-      <c r="B112" s="60"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="3">
         <v>44796</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="A113" s="4">
         <v>109</v>
       </c>
-      <c r="B113" s="60"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="3">
         <v>44796</v>
       </c>
@@ -7822,7 +7822,7 @@
       <c r="A114" s="4">
         <v>110</v>
       </c>
-      <c r="B114" s="60"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="3">
         <v>44796</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="A115" s="4">
         <v>111</v>
       </c>
-      <c r="B115" s="60"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="3">
         <v>44796</v>
       </c>
@@ -7928,7 +7928,7 @@
       <c r="A116" s="4">
         <v>112</v>
       </c>
-      <c r="B116" s="60"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="3">
         <v>44796</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="A117" s="4">
         <v>113</v>
       </c>
-      <c r="B117" s="60"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="3">
         <v>44796</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="A118" s="4">
         <v>114</v>
       </c>
-      <c r="B118" s="60"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="3">
         <v>44788</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="A119" s="4">
         <v>115</v>
       </c>
-      <c r="B119" s="60"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="3">
         <v>44788</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="A120" s="4">
         <v>116</v>
       </c>
-      <c r="B120" s="60"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="3">
         <v>44788</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="A121" s="4">
         <v>117</v>
       </c>
-      <c r="B121" s="60"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="3">
         <v>44788</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="A122" s="4">
         <v>118</v>
       </c>
-      <c r="B122" s="60"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="3">
         <v>44788</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="A123" s="4">
         <v>119</v>
       </c>
-      <c r="B123" s="60"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="3">
         <v>44788</v>
       </c>
@@ -8332,7 +8332,7 @@
       <c r="A124" s="4">
         <v>120</v>
       </c>
-      <c r="B124" s="61"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="3">
         <v>44788</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="A125" s="4">
         <v>121</v>
       </c>
-      <c r="B125" s="59" t="s">
+      <c r="B125" s="46" t="s">
         <v>119</v>
       </c>
       <c r="C125" s="3">
@@ -8430,7 +8430,7 @@
       <c r="A126" s="4">
         <v>122</v>
       </c>
-      <c r="B126" s="61"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="3">
         <v>44795</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="A127" s="4">
         <v>123</v>
       </c>
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="46" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="3">
@@ -8536,7 +8536,7 @@
       <c r="A128" s="4">
         <v>124</v>
       </c>
-      <c r="B128" s="60"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="3">
         <v>44781</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="A129" s="4">
         <v>125</v>
       </c>
-      <c r="B129" s="60"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="3">
         <v>44781</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="A130" s="4">
         <v>126</v>
       </c>
-      <c r="B130" s="60"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="3">
         <v>44781</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="A131" s="4">
         <v>127</v>
       </c>
-      <c r="B131" s="60"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="3">
         <v>44781</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="A132" s="4">
         <v>128</v>
       </c>
-      <c r="B132" s="61"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="3">
         <v>44781</v>
       </c>
@@ -8898,7 +8898,7 @@
       <c r="A135" s="4">
         <v>131</v>
       </c>
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="46" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="3">
@@ -8950,7 +8950,7 @@
       <c r="A136" s="4">
         <v>132</v>
       </c>
-      <c r="B136" s="61"/>
+      <c r="B136" s="48"/>
       <c r="C136" s="3">
         <v>44789</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="A137" s="4">
         <v>133</v>
       </c>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="46" t="s">
         <v>151</v>
       </c>
       <c r="C137" s="3">
@@ -9052,7 +9052,7 @@
       <c r="A138" s="4">
         <v>134</v>
       </c>
-      <c r="B138" s="60"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="3">
         <v>44789</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="A139" s="4">
         <v>135</v>
       </c>
-      <c r="B139" s="60"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="3">
         <v>44790</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="A140" s="4">
         <v>136</v>
       </c>
-      <c r="B140" s="60"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="3">
         <v>44797</v>
       </c>
@@ -9200,7 +9200,7 @@
       <c r="A141" s="4">
         <v>137</v>
       </c>
-      <c r="B141" s="60"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="3">
         <v>44797</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="A142" s="4">
         <v>138</v>
       </c>
-      <c r="B142" s="60"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="3">
         <v>44797</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="A143" s="4">
         <v>139</v>
       </c>
-      <c r="B143" s="60"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="3">
         <v>44797</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="A144" s="4">
         <v>140</v>
       </c>
-      <c r="B144" s="60"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="3">
         <v>44777</v>
       </c>
@@ -9398,7 +9398,7 @@
       <c r="A145" s="4">
         <v>141</v>
       </c>
-      <c r="B145" s="60"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="3">
         <v>44797</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="A146" s="4">
         <v>142</v>
       </c>
-      <c r="B146" s="60"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="3">
         <v>44775</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="A147" s="4">
         <v>143</v>
       </c>
-      <c r="B147" s="60"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="3">
         <v>44785</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="A148" s="4">
         <v>144</v>
       </c>
-      <c r="B148" s="60"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="3">
         <v>44774</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="A149" s="4">
         <v>145</v>
       </c>
-      <c r="B149" s="60"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="3">
         <v>44774</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="A150" s="4">
         <v>146</v>
       </c>
-      <c r="B150" s="60"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="3">
         <v>44777</v>
       </c>
@@ -9714,7 +9714,7 @@
       <c r="A151" s="4">
         <v>147</v>
       </c>
-      <c r="B151" s="60"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="3">
         <v>44777</v>
       </c>
@@ -9768,7 +9768,7 @@
       <c r="A152" s="4">
         <v>148</v>
       </c>
-      <c r="B152" s="60"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="3">
         <v>44781</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="A153" s="4">
         <v>149</v>
       </c>
-      <c r="B153" s="60"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="3">
         <v>44781</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="A154" s="4">
         <v>150</v>
       </c>
-      <c r="B154" s="60"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="3">
         <v>44785</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="A155" s="4">
         <v>151</v>
       </c>
-      <c r="B155" s="60"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="3">
         <v>44785</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="A156" s="4">
         <v>152</v>
       </c>
-      <c r="B156" s="60"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="3">
         <v>44785</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="A157" s="4">
         <v>153</v>
       </c>
-      <c r="B157" s="60"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="3">
         <v>44789</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="A158" s="4">
         <v>154</v>
       </c>
-      <c r="B158" s="60"/>
+      <c r="B158" s="47"/>
       <c r="C158" s="3">
         <v>44789</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="A159" s="4">
         <v>155</v>
       </c>
-      <c r="B159" s="60"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="3">
         <v>44789</v>
       </c>
@@ -10184,7 +10184,7 @@
       <c r="A160" s="4">
         <v>156</v>
       </c>
-      <c r="B160" s="60"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="3">
         <v>44789</v>
       </c>
@@ -10238,7 +10238,7 @@
       <c r="A161" s="4">
         <v>157</v>
       </c>
-      <c r="B161" s="60"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="3">
         <v>44790</v>
       </c>
@@ -10290,7 +10290,7 @@
       <c r="A162" s="4">
         <v>158</v>
       </c>
-      <c r="B162" s="61"/>
+      <c r="B162" s="48"/>
       <c r="C162" s="3">
         <v>44790</v>
       </c>
@@ -10342,7 +10342,7 @@
       <c r="A163" s="4">
         <v>159</v>
       </c>
-      <c r="B163" s="59" t="s">
+      <c r="B163" s="46" t="s">
         <v>169</v>
       </c>
       <c r="C163" s="3">
@@ -10388,7 +10388,7 @@
       <c r="A164" s="4">
         <v>160</v>
       </c>
-      <c r="B164" s="61"/>
+      <c r="B164" s="48"/>
       <c r="C164" s="3">
         <v>44802</v>
       </c>
@@ -10424,7 +10424,7 @@
       <c r="A165" s="4">
         <v>161</v>
       </c>
-      <c r="B165" s="59" t="s">
+      <c r="B165" s="46" t="s">
         <v>173</v>
       </c>
       <c r="C165" s="3">
@@ -10476,7 +10476,7 @@
       <c r="A166" s="4">
         <v>162</v>
       </c>
-      <c r="B166" s="60"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="3">
         <v>44777</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="A167" s="4">
         <v>163</v>
       </c>
-      <c r="B167" s="60"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="3">
         <v>44777</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="A168" s="4">
         <v>164</v>
       </c>
-      <c r="B168" s="60"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="3">
         <v>44777</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="A169" s="4">
         <v>165</v>
       </c>
-      <c r="B169" s="61"/>
+      <c r="B169" s="48"/>
       <c r="C169" s="3">
         <v>44777</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="A170" s="4">
         <v>166</v>
       </c>
-      <c r="B170" s="59" t="s">
+      <c r="B170" s="46" t="s">
         <v>186</v>
       </c>
       <c r="C170" s="3">
@@ -10740,7 +10740,7 @@
       <c r="A171" s="4">
         <v>167</v>
       </c>
-      <c r="B171" s="61"/>
+      <c r="B171" s="48"/>
       <c r="C171" s="3">
         <v>44781</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="A173" s="4">
         <v>169</v>
       </c>
-      <c r="B173" s="59" t="s">
+      <c r="B173" s="46" t="s">
         <v>189</v>
       </c>
       <c r="C173" s="3">
@@ -10900,7 +10900,7 @@
       <c r="A174" s="4">
         <v>170</v>
       </c>
-      <c r="B174" s="60"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="3">
         <v>44784</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="A175" s="4">
         <v>171</v>
       </c>
-      <c r="B175" s="60"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="3">
         <v>44784</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="A176" s="4">
         <v>172</v>
       </c>
-      <c r="B176" s="61"/>
+      <c r="B176" s="48"/>
       <c r="C176" s="3">
         <v>44784</v>
       </c>
@@ -11218,7 +11218,7 @@
       <c r="A180" s="4">
         <v>176</v>
       </c>
-      <c r="B180" s="59" t="s">
+      <c r="B180" s="46" t="s">
         <v>202</v>
       </c>
       <c r="C180" s="3">
@@ -11272,7 +11272,7 @@
       <c r="A181" s="4">
         <v>177</v>
       </c>
-      <c r="B181" s="60"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="3">
         <v>44785</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="A182" s="4">
         <v>178</v>
       </c>
-      <c r="B182" s="61"/>
+      <c r="B182" s="48"/>
       <c r="C182" s="3">
         <v>44799</v>
       </c>
@@ -11372,7 +11372,7 @@
       <c r="A183" s="4">
         <v>179</v>
       </c>
-      <c r="B183" s="59" t="s">
+      <c r="B183" s="46" t="s">
         <v>208</v>
       </c>
       <c r="C183" s="3">
@@ -11426,7 +11426,7 @@
       <c r="A184" s="4">
         <v>180</v>
       </c>
-      <c r="B184" s="60"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="3">
         <v>44781</v>
       </c>
@@ -11476,7 +11476,7 @@
       <c r="A185" s="4">
         <v>181</v>
       </c>
-      <c r="B185" s="60"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="3">
         <v>44781</v>
       </c>
@@ -11528,7 +11528,7 @@
       <c r="A186" s="4">
         <v>182</v>
       </c>
-      <c r="B186" s="60"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="3">
         <v>44781</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="A187" s="4">
         <v>183</v>
       </c>
-      <c r="B187" s="60"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="3">
         <v>44781</v>
       </c>
@@ -11630,7 +11630,7 @@
       <c r="A188" s="4">
         <v>184</v>
       </c>
-      <c r="B188" s="60"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="3">
         <v>44781</v>
       </c>
@@ -11682,7 +11682,7 @@
       <c r="A189" s="4">
         <v>185</v>
       </c>
-      <c r="B189" s="60"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="3">
         <v>44781</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="A190" s="4">
         <v>186</v>
       </c>
-      <c r="B190" s="60"/>
+      <c r="B190" s="47"/>
       <c r="C190" s="3">
         <v>44781</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="A191" s="4">
         <v>187</v>
       </c>
-      <c r="B191" s="60"/>
+      <c r="B191" s="47"/>
       <c r="C191" s="3">
         <v>44781</v>
       </c>
@@ -11836,7 +11836,7 @@
       <c r="A192" s="4">
         <v>188</v>
       </c>
-      <c r="B192" s="60"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="3">
         <v>44781</v>
       </c>
@@ -11886,7 +11886,7 @@
       <c r="A193" s="4">
         <v>189</v>
       </c>
-      <c r="B193" s="60"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="3">
         <v>44797</v>
       </c>
@@ -11934,7 +11934,7 @@
       <c r="A194" s="4">
         <v>190</v>
       </c>
-      <c r="B194" s="60"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="3">
         <v>44798</v>
       </c>
@@ -11986,7 +11986,7 @@
       <c r="A195" s="4">
         <v>191</v>
       </c>
-      <c r="B195" s="60"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="3">
         <v>44799</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="A196" s="4">
         <v>192</v>
       </c>
-      <c r="B196" s="60"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="3">
         <v>44800</v>
       </c>
@@ -12086,7 +12086,7 @@
       <c r="A197" s="4">
         <v>193</v>
       </c>
-      <c r="B197" s="60"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="3">
         <v>44781</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="A198" s="4">
         <v>194</v>
       </c>
-      <c r="B198" s="60"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="3">
         <v>44797</v>
       </c>
@@ -12192,7 +12192,7 @@
       <c r="A199" s="4">
         <v>195</v>
       </c>
-      <c r="B199" s="60"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="3">
         <v>44781</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="A200" s="4">
         <v>196</v>
       </c>
-      <c r="B200" s="60"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="3">
         <v>44797</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="A201" s="4">
         <v>197</v>
       </c>
-      <c r="B201" s="60"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="3">
         <v>44797</v>
       </c>
@@ -12336,7 +12336,7 @@
       <c r="A202" s="4">
         <v>198</v>
       </c>
-      <c r="B202" s="60"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="3">
         <v>44781</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="A203" s="4">
         <v>199</v>
       </c>
-      <c r="B203" s="60"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="3">
         <v>44781</v>
       </c>
@@ -12440,7 +12440,7 @@
       <c r="A204" s="4">
         <v>200</v>
       </c>
-      <c r="B204" s="60"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="3">
         <v>44781</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="A205" s="4">
         <v>201</v>
       </c>
-      <c r="B205" s="60"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="3">
         <v>44781</v>
       </c>
@@ -12536,7 +12536,7 @@
       <c r="A206" s="4">
         <v>202</v>
       </c>
-      <c r="B206" s="60"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="3">
         <v>44781</v>
       </c>
@@ -12584,7 +12584,7 @@
       <c r="A207" s="4">
         <v>203</v>
       </c>
-      <c r="B207" s="60"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="3">
         <v>44781</v>
       </c>
@@ -12636,7 +12636,7 @@
       <c r="A208" s="4">
         <v>204</v>
       </c>
-      <c r="B208" s="60"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="3">
         <v>44781</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="A209" s="4">
         <v>205</v>
       </c>
-      <c r="B209" s="60"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="3">
         <v>44781</v>
       </c>
@@ -12736,7 +12736,7 @@
       <c r="A210" s="4">
         <v>206</v>
       </c>
-      <c r="B210" s="60"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="3">
         <v>44781</v>
       </c>
@@ -12786,7 +12786,7 @@
       <c r="A211" s="4">
         <v>207</v>
       </c>
-      <c r="B211" s="60"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="3">
         <v>44797</v>
       </c>
@@ -12834,7 +12834,7 @@
       <c r="A212" s="4">
         <v>208</v>
       </c>
-      <c r="B212" s="60"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="3">
         <v>44797</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="A213" s="4">
         <v>209</v>
       </c>
-      <c r="B213" s="60"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="3">
         <v>44797</v>
       </c>
@@ -12932,7 +12932,7 @@
       <c r="A214" s="4">
         <v>210</v>
       </c>
-      <c r="B214" s="60"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="3">
         <v>44797</v>
       </c>
@@ -12980,7 +12980,7 @@
       <c r="A215" s="4">
         <v>211</v>
       </c>
-      <c r="B215" s="61"/>
+      <c r="B215" s="48"/>
       <c r="C215" s="3">
         <v>44797</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="A218" s="4">
         <v>214</v>
       </c>
-      <c r="B218" s="62" t="s">
+      <c r="B218" s="56" t="s">
         <v>269</v>
       </c>
       <c r="C218" s="3">
@@ -13186,7 +13186,7 @@
       <c r="A219" s="4">
         <v>215</v>
       </c>
-      <c r="B219" s="63"/>
+      <c r="B219" s="57"/>
       <c r="C219" s="3">
         <v>44795</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="A220" s="4">
         <v>216</v>
       </c>
-      <c r="B220" s="59" t="s">
+      <c r="B220" s="46" t="s">
         <v>271</v>
       </c>
       <c r="C220" s="3">
@@ -13294,7 +13294,7 @@
       <c r="A221" s="4">
         <v>217</v>
       </c>
-      <c r="B221" s="60"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="3">
         <v>44775</v>
       </c>
@@ -13344,7 +13344,7 @@
       <c r="A222" s="4">
         <v>218</v>
       </c>
-      <c r="B222" s="60"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="3">
         <v>44775</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="A223" s="4">
         <v>219</v>
       </c>
-      <c r="B223" s="60"/>
+      <c r="B223" s="47"/>
       <c r="C223" s="3">
         <v>44775</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="A224" s="4">
         <v>220</v>
       </c>
-      <c r="B224" s="60"/>
+      <c r="B224" s="47"/>
       <c r="C224" s="3">
         <v>44775</v>
       </c>
@@ -13492,7 +13492,7 @@
       <c r="A225" s="4">
         <v>221</v>
       </c>
-      <c r="B225" s="60"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="3">
         <v>44781</v>
       </c>
@@ -13542,7 +13542,7 @@
       <c r="A226" s="4">
         <v>222</v>
       </c>
-      <c r="B226" s="60"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="3">
         <v>44781</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="A227" s="4">
         <v>223</v>
       </c>
-      <c r="B227" s="60"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="3">
         <v>44781</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="A228" s="4">
         <v>224</v>
       </c>
-      <c r="B228" s="60"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="3">
         <v>44781</v>
       </c>
@@ -13696,7 +13696,7 @@
       <c r="A229" s="4">
         <v>225</v>
       </c>
-      <c r="B229" s="60"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="3">
         <v>44781</v>
       </c>
@@ -13746,7 +13746,7 @@
       <c r="A230" s="4">
         <v>226</v>
       </c>
-      <c r="B230" s="61"/>
+      <c r="B230" s="48"/>
       <c r="C230" s="3">
         <v>44781</v>
       </c>
@@ -13800,7 +13800,7 @@
       <c r="A231" s="4">
         <v>227</v>
       </c>
-      <c r="B231" s="59" t="s">
+      <c r="B231" s="46" t="s">
         <v>278</v>
       </c>
       <c r="C231" s="3">
@@ -13852,7 +13852,7 @@
       <c r="A232" s="4">
         <v>228</v>
       </c>
-      <c r="B232" s="60"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="3">
         <v>44797</v>
       </c>
@@ -13904,7 +13904,7 @@
       <c r="A233" s="4">
         <v>229</v>
       </c>
-      <c r="B233" s="61"/>
+      <c r="B233" s="48"/>
       <c r="C233" s="3">
         <v>44797</v>
       </c>
@@ -14008,7 +14008,7 @@
       <c r="A235" s="4">
         <v>231</v>
       </c>
-      <c r="B235" s="59" t="s">
+      <c r="B235" s="46" t="s">
         <v>290</v>
       </c>
       <c r="C235" s="3">
@@ -14060,7 +14060,7 @@
       <c r="A236" s="4">
         <v>232</v>
       </c>
-      <c r="B236" s="60"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="3">
         <v>44784</v>
       </c>
@@ -14110,7 +14110,7 @@
       <c r="A237" s="4">
         <v>233</v>
       </c>
-      <c r="B237" s="60"/>
+      <c r="B237" s="47"/>
       <c r="C237" s="3">
         <v>44784</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="A238" s="4">
         <v>234</v>
       </c>
-      <c r="B238" s="61"/>
+      <c r="B238" s="48"/>
       <c r="C238" s="3">
         <v>44784</v>
       </c>
@@ -14208,6 +14208,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="V9:V14"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B215"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B220:B230"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="B165:B169"/>
     <mergeCell ref="B170:B171"/>
@@ -14224,34 +14252,6 @@
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B215"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B220:B230"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="V9:V14"/>
-    <mergeCell ref="V15:V19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14399,7 +14399,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14492,10 +14492,10 @@
         <v>382</v>
       </c>
       <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
         <v>2</v>
-      </c>
-      <c r="E4" s="44">
-        <v>0</v>
       </c>
       <c r="F4" s="43">
         <v>0</v>
@@ -14510,10 +14510,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="42">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
